--- a/documents/Projet.xlsx
+++ b/documents/Projet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Soumission Candidature" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Conception du formulaire d'inscription</t>
   </si>
@@ -137,16 +137,13 @@
     <t>Détail de la candidature</t>
   </si>
   <si>
-    <t>Cas d'erreur lorsque la candidature est non conforme + commentaire</t>
-  </si>
-  <si>
-    <t>cases à cocher d'erreur par information</t>
-  </si>
-  <si>
-    <t>Récapitulation des erreurs en bas de page</t>
-  </si>
-  <si>
     <t>Récupération filière par web service</t>
+  </si>
+  <si>
+    <t>Commentaire Erreur</t>
+  </si>
+  <si>
+    <t>ce champ doit resté fixe en scrollant</t>
   </si>
 </sst>
 </file>
@@ -636,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -767,10 +764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -842,33 +839,21 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/Projet.xlsx
+++ b/documents/Projet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Conception du formulaire d'inscription</t>
   </si>
@@ -144,13 +144,25 @@
   </si>
   <si>
     <t>ce champ doit resté fixe en scrollant</t>
+  </si>
+  <si>
+    <t>Internalisation</t>
+  </si>
+  <si>
+    <t>Fichier de properties</t>
+  </si>
+  <si>
+    <t>Commenter le code</t>
+  </si>
+  <si>
+    <t>entre autre : tailles max des PJs + infos WS redmine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +196,21 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,9 +325,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,6 +353,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,7 +670,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -646,107 +682,107 @@
   <sheetData>
     <row r="2" spans="2:4" ht="6" customHeight="1"/>
     <row r="3" spans="2:4" ht="33" customHeight="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -767,7 +803,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -779,81 +815,93 @@
   <sheetData>
     <row r="2" spans="2:4" ht="6" customHeight="1"/>
     <row r="3" spans="2:4" ht="33" customHeight="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="30">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="30">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -868,7 +916,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -880,45 +928,47 @@
   <sheetData>
     <row r="2" spans="2:4" ht="6" customHeight="1"/>
     <row r="3" spans="2:4" ht="33" customHeight="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -930,10 +980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -945,47 +995,70 @@
   <sheetData>
     <row r="2" spans="2:4" ht="6" customHeight="1"/>
     <row r="3" spans="2:4" ht="33" customHeight="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="25.5" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
